--- a/results/result_smallest_0_100.xlsx
+++ b/results/result_smallest_0_100.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HiloHiloHilo\Desktop\Code File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NEU PHD\research\info fusion project\2023.0016\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C89B4F-2B7A-42BA-9BB6-B762EEB86B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E7953-A0E5-4CBA-B70B-B5B11DDBD7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost" sheetId="2" r:id="rId1"/>
@@ -528,27 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,11 +558,32 @@
     <xf numFmtId="10" fontId="9" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19128,14 +19128,14 @@
       <selection activeCell="CD37" sqref="CD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="12.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.17578125" style="1"/>
+    <col min="2" max="2" width="12.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.17578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -19143,135 +19143,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.5">
+      <c r="B2" s="43">
         <v>3</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>4</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43">
         <v>5</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32">
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>6</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43">
         <v>7</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43">
         <v>8</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32">
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43">
         <v>9</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32">
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43">
         <v>10</v>
       </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32">
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43">
         <v>11</v>
       </c>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32">
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="43">
         <v>12</v>
       </c>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32">
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43">
         <v>13</v>
       </c>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32">
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43">
         <v>14</v>
       </c>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32">
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43">
         <v>15</v>
       </c>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="32">
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43"/>
+      <c r="BO2" s="43">
         <v>16</v>
       </c>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32"/>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32">
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43">
         <v>17</v>
       </c>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
-      <c r="BX2" s="32"/>
-      <c r="BY2" s="32">
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
+      <c r="BX2" s="43"/>
+      <c r="BY2" s="43">
         <v>18</v>
       </c>
-      <c r="BZ2" s="32"/>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
-      <c r="CC2" s="32"/>
-      <c r="CD2" s="32">
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
+      <c r="CC2" s="43"/>
+      <c r="CD2" s="43">
         <v>19</v>
       </c>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32">
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
+      <c r="CH2" s="43"/>
+      <c r="CI2" s="43">
         <v>20</v>
       </c>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="32"/>
-      <c r="CL2" s="32"/>
-      <c r="CM2" s="32"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
+      <c r="CM2" s="43"/>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>571.6</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>1054.8</v>
       </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>1923.6</v>
       </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>2821.8</v>
       </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>4308.8</v>
       </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>4976.8</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>6585.2</v>
       </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>8799.2000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -21951,52 +21951,52 @@
       <c r="CG12"/>
       <c r="CL12"/>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -22004,135 +22004,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="32">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.5">
+      <c r="B24" s="43">
         <v>3</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43">
         <v>4</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32">
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43">
         <v>5</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32">
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43">
         <v>6</v>
       </c>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32">
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43">
         <v>7</v>
       </c>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32">
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43">
         <v>8</v>
       </c>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32">
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43">
         <v>9</v>
       </c>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32">
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43">
         <v>10</v>
       </c>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32">
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43">
         <v>11</v>
       </c>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32">
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43">
         <v>12</v>
       </c>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="32"/>
-      <c r="AY24" s="32"/>
-      <c r="AZ24" s="32">
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43">
         <v>13</v>
       </c>
-      <c r="BA24" s="32"/>
-      <c r="BB24" s="32"/>
-      <c r="BC24" s="32"/>
-      <c r="BD24" s="32"/>
-      <c r="BE24" s="32">
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="43"/>
+      <c r="BD24" s="43"/>
+      <c r="BE24" s="43">
         <v>14</v>
       </c>
-      <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32">
+      <c r="BF24" s="43"/>
+      <c r="BG24" s="43"/>
+      <c r="BH24" s="43"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="43">
         <v>15</v>
       </c>
-      <c r="BK24" s="32"/>
-      <c r="BL24" s="32"/>
-      <c r="BM24" s="32"/>
-      <c r="BN24" s="32"/>
-      <c r="BO24" s="32">
+      <c r="BK24" s="43"/>
+      <c r="BL24" s="43"/>
+      <c r="BM24" s="43"/>
+      <c r="BN24" s="43"/>
+      <c r="BO24" s="43">
         <v>16</v>
       </c>
-      <c r="BP24" s="32"/>
-      <c r="BQ24" s="32"/>
-      <c r="BR24" s="32"/>
-      <c r="BS24" s="32"/>
-      <c r="BT24" s="32">
+      <c r="BP24" s="43"/>
+      <c r="BQ24" s="43"/>
+      <c r="BR24" s="43"/>
+      <c r="BS24" s="43"/>
+      <c r="BT24" s="43">
         <v>17</v>
       </c>
-      <c r="BU24" s="32"/>
-      <c r="BV24" s="32"/>
-      <c r="BW24" s="32"/>
-      <c r="BX24" s="32"/>
-      <c r="BY24" s="32">
+      <c r="BU24" s="43"/>
+      <c r="BV24" s="43"/>
+      <c r="BW24" s="43"/>
+      <c r="BX24" s="43"/>
+      <c r="BY24" s="43">
         <v>18</v>
       </c>
-      <c r="BZ24" s="32"/>
-      <c r="CA24" s="32"/>
-      <c r="CB24" s="32"/>
-      <c r="CC24" s="32"/>
-      <c r="CD24" s="32">
+      <c r="BZ24" s="43"/>
+      <c r="CA24" s="43"/>
+      <c r="CB24" s="43"/>
+      <c r="CC24" s="43"/>
+      <c r="CD24" s="43">
         <v>19</v>
       </c>
-      <c r="CE24" s="32"/>
-      <c r="CF24" s="32"/>
-      <c r="CG24" s="32"/>
-      <c r="CH24" s="32"/>
-      <c r="CI24" s="32">
+      <c r="CE24" s="43"/>
+      <c r="CF24" s="43"/>
+      <c r="CG24" s="43"/>
+      <c r="CH24" s="43"/>
+      <c r="CI24" s="43">
         <v>20</v>
       </c>
-      <c r="CJ24" s="32"/>
-      <c r="CK24" s="32"/>
-      <c r="CL24" s="32"/>
-      <c r="CM24" s="32"/>
+      <c r="CJ24" s="43"/>
+      <c r="CK24" s="43"/>
+      <c r="CL24" s="43"/>
+      <c r="CM24" s="43"/>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>6</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>10</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -25581,7 +25581,7 @@
       <c r="CL34"/>
       <c r="CM34"/>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>11</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -27041,12 +27041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>63.69694392707158</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -27088,7 +27088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>0.99999999999622391</v>
       </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.5">
       <c r="B44" s="1">
         <v>3</v>
       </c>
@@ -27165,7 +27165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>1.3774314263488366E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -27283,7 +27283,7 @@
         <v>1.3419875563676415E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -27344,16 +27344,16 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BO24:BS24"/>
-    <mergeCell ref="BT24:BX24"/>
-    <mergeCell ref="BY24:CC24"/>
-    <mergeCell ref="CD24:CH24"/>
-    <mergeCell ref="CI24:CM24"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AZ24:BD24"/>
     <mergeCell ref="BE24:BI24"/>
     <mergeCell ref="BJ24:BN24"/>
@@ -27370,16 +27370,16 @@
     <mergeCell ref="AK24:AO24"/>
     <mergeCell ref="AP24:AT24"/>
     <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="CD2:CH2"/>
-    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="BO24:BS24"/>
+    <mergeCell ref="BT24:BX24"/>
+    <mergeCell ref="BY24:CC24"/>
+    <mergeCell ref="CD24:CH24"/>
+    <mergeCell ref="CI24:CM24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27393,29 +27393,29 @@
       <selection activeCell="BT4" sqref="BT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.234375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -27494,118 +27494,118 @@
       <c r="BT1" s="1"/>
       <c r="BU1" s="1"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="32">
+      <c r="B2" s="43">
         <v>3</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <v>6</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43">
         <v>7</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43">
         <v>8</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43">
         <v>9</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43">
         <v>10</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43">
         <v>11</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43">
         <v>12</v>
       </c>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32">
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43">
         <v>13</v>
       </c>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32">
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43">
         <v>14</v>
       </c>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43">
         <v>15</v>
       </c>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32">
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43">
         <v>16</v>
       </c>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32">
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43">
         <v>17</v>
       </c>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32">
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43">
         <v>18</v>
       </c>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32">
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43">
         <v>19</v>
       </c>
-      <c r="BO2" s="32"/>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32">
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43">
         <v>20</v>
       </c>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
-      <c r="BU2" s="32"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>571.6</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -28268,7 +28268,7 @@
         <v>1054.8</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>1923.6</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>2821.8</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -28931,7 +28931,7 @@
         <v>4308.8</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -29154,7 +29154,7 @@
       <c r="BW9" s="1"/>
       <c r="BZ9" s="1"/>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -29377,7 +29377,7 @@
       <c r="BW10" s="1"/>
       <c r="BZ10" s="1"/>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -29600,7 +29600,7 @@
       <c r="BW11" s="1"/>
       <c r="BZ11" s="1"/>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -29776,7 +29776,7 @@
       <c r="BS12" s="1"/>
       <c r="BU12" s="1"/>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
@@ -29958,7 +29958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>3</v>
@@ -30231,7 +30231,7 @@
         <v>1.1999999999999318</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>4</v>
@@ -30504,7 +30504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>5</v>
@@ -30777,7 +30777,7 @@
         <v>1.2000000000000455</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>6</v>
@@ -31050,7 +31050,7 @@
         <v>6.7999999999997272</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>7</v>
@@ -31323,7 +31323,7 @@
         <v>6.3999999999996362</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>8</v>
@@ -31596,7 +31596,7 @@
         <v>11.199999999999818</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <v>9</v>
@@ -31869,7 +31869,7 @@
         <v>19.199999999999818</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
         <v>10</v>
@@ -32142,7 +32142,7 @@
         <v>14.799999999999272</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B22" s="1">
         <v>11</v>
       </c>
@@ -32351,7 +32351,7 @@
       <c r="BS22" s="1"/>
       <c r="BT22" s="1"/>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.5">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -32515,7 +32515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -32787,7 +32787,7 @@
         <v>2.0993701889431976E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -33059,7 +33059,7 @@
         <v>1.8960940462646948E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -33331,7 +33331,7 @@
         <v>6.2383031815348589E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B27" s="1">
         <v>6</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>2.409809341554939E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B28" s="1">
         <v>7</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>1.4853323431116869E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B29" s="1">
         <v>8</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>2.250442051117147E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B30" s="1">
         <v>9</v>
       </c>
@@ -34419,7 +34419,7 @@
         <v>2.915628986211477E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B31" s="1">
         <v>10</v>
       </c>
@@ -34691,7 +34691,7 @@
         <v>1.6819710882806699E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.5">
       <c r="B32" s="1">
         <v>11</v>
       </c>
@@ -34890,6 +34890,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="BR2:BU2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
@@ -34902,12 +34908,6 @@
     <mergeCell ref="BF2:BI2"/>
     <mergeCell ref="BJ2:BM2"/>
     <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34922,51 +34922,51 @@
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.5">
+      <c r="B1" s="43">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="F1" s="32">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="F1" s="43">
         <v>4</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="J1" s="32">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="J1" s="43">
         <v>5</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="N1" s="32">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="N1" s="43">
         <v>6</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="R1" s="32">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="R1" s="43">
         <v>7</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="V1" s="32">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="V1" s="43">
         <v>8</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Z1" s="32">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Z1" s="43">
         <v>9</v>
       </c>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AD1" s="32">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AD1" s="43">
         <v>10</v>
       </c>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -35040,7 +35040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35236,7 +35236,7 @@
         <v>3.1999999999998181</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35334,7 +35334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35432,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35530,7 +35530,7 @@
         <v>10.800000000000182</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -35628,7 +35628,7 @@
         <v>16.400000000000546</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>9</v>
       </c>
@@ -35726,7 +35726,7 @@
         <v>11.199999999999818</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -35824,7 +35824,7 @@
         <v>7.1999999999998181</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -35922,7 +35922,7 @@
         <v>9.1999999999998181</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>12</v>
       </c>
@@ -36020,7 +36020,7 @@
         <v>25.600000000000364</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>13</v>
       </c>
@@ -36118,7 +36118,7 @@
         <v>14.400000000000546</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>14</v>
       </c>
@@ -36216,7 +36216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>15</v>
       </c>
@@ -36314,7 +36314,7 @@
         <v>20.400000000000546</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>16</v>
       </c>
@@ -36412,7 +36412,7 @@
         <v>11.600000000000364</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>17</v>
       </c>
@@ -36510,7 +36510,7 @@
         <v>19.600000000000364</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>18</v>
       </c>
@@ -36608,7 +36608,7 @@
         <v>24.399999999999636</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>19</v>
       </c>
@@ -36706,7 +36706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>20</v>
       </c>
@@ -36822,15 +36822,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU21"/>
+  <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="BT4" sqref="BT4:BT11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36838,117 +36838,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.5">
+      <c r="B2" s="43">
         <v>3</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
         <v>4</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43">
         <v>5</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43">
         <v>6</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43">
         <v>7</v>
       </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32">
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43">
         <v>8</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32">
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43">
         <v>9</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32">
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43">
         <v>10</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43">
         <v>11</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43">
         <v>12</v>
       </c>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32">
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43">
         <v>13</v>
       </c>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32">
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43">
         <v>14</v>
       </c>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43">
         <v>15</v>
       </c>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32">
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43">
         <v>16</v>
       </c>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32">
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43">
         <v>17</v>
       </c>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="32">
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="43">
         <v>18</v>
       </c>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32">
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
+      <c r="BN2" s="43">
         <v>19</v>
       </c>
-      <c r="BO2" s="32"/>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32">
+      <c r="BO2" s="43"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43">
         <v>20</v>
       </c>
-      <c r="BS2" s="32"/>
-      <c r="BT2" s="32"/>
-      <c r="BU2" s="32"/>
+      <c r="BS2" s="43"/>
+      <c r="BT2" s="43"/>
+      <c r="BU2" s="43"/>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -37118,7 +37118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -37339,7 +37339,7 @@
         <v>1.094869327545166</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -37560,7 +37560,7 @@
         <v>2.7316677570343022</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -37781,7 +37781,7 @@
         <v>10.888576602935791</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38002,7 +38002,7 @@
         <v>39.462318563461302</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>346.32952241897578</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38444,7 +38444,7 @@
         <v>597.84813999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38665,7 +38665,7 @@
         <v>2391.7636200000002</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38886,7 +38886,7 @@
         <v>4253.0472900000004</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -39045,55 +39045,20 @@
       </c>
       <c r="BA12">
         <v>1131.53315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BF2:BI2"/>
+    <mergeCell ref="BJ2:BM2"/>
+    <mergeCell ref="BN2:BQ2"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
@@ -39102,16 +39067,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BF2:BI2"/>
-    <mergeCell ref="BJ2:BM2"/>
-    <mergeCell ref="BN2:BQ2"/>
-    <mergeCell ref="BR2:BU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39125,29 +39080,29 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -39155,134 +39110,134 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.5">
+      <c r="B2" s="43">
         <v>3</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="32">
+      <c r="G2" s="43">
         <v>4</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="32">
+      <c r="L2" s="43">
         <v>5</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="32">
+      <c r="Q2" s="43">
         <v>6</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="32">
+      <c r="V2" s="43">
         <v>7</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="32">
+      <c r="AA2" s="43">
         <v>8</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="32">
+      <c r="AF2" s="43">
         <v>9</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
       <c r="AJ2" s="5"/>
-      <c r="AK2" s="32">
+      <c r="AK2" s="43">
         <v>10</v>
       </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="32">
+      <c r="AP2" s="43">
         <v>11</v>
       </c>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
       <c r="AT2" s="5"/>
-      <c r="AU2" s="32">
+      <c r="AU2" s="43">
         <v>12</v>
       </c>
-      <c r="AV2" s="32"/>
-      <c r="AW2" s="32"/>
-      <c r="AX2" s="32"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
       <c r="AY2" s="5"/>
-      <c r="AZ2" s="32">
+      <c r="AZ2" s="43">
         <v>13</v>
       </c>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="32"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43"/>
+      <c r="BC2" s="43"/>
       <c r="BD2" s="5"/>
-      <c r="BE2" s="32">
+      <c r="BE2" s="43">
         <v>14</v>
       </c>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
       <c r="BI2" s="5"/>
-      <c r="BJ2" s="32">
+      <c r="BJ2" s="43">
         <v>15</v>
       </c>
-      <c r="BK2" s="32"/>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
+      <c r="BK2" s="43"/>
+      <c r="BL2" s="43"/>
+      <c r="BM2" s="43"/>
       <c r="BN2" s="5"/>
-      <c r="BO2" s="32">
+      <c r="BO2" s="43">
         <v>16</v>
       </c>
-      <c r="BP2" s="32"/>
-      <c r="BQ2" s="32"/>
-      <c r="BR2" s="32"/>
+      <c r="BP2" s="43"/>
+      <c r="BQ2" s="43"/>
+      <c r="BR2" s="43"/>
       <c r="BS2" s="5"/>
-      <c r="BT2" s="32">
+      <c r="BT2" s="43">
         <v>17</v>
       </c>
-      <c r="BU2" s="32"/>
-      <c r="BV2" s="32"/>
-      <c r="BW2" s="32"/>
+      <c r="BU2" s="43"/>
+      <c r="BV2" s="43"/>
+      <c r="BW2" s="43"/>
       <c r="BX2" s="5"/>
-      <c r="BY2" s="32">
+      <c r="BY2" s="43">
         <v>18</v>
       </c>
-      <c r="BZ2" s="32"/>
-      <c r="CA2" s="32"/>
-      <c r="CB2" s="32"/>
+      <c r="BZ2" s="43"/>
+      <c r="CA2" s="43"/>
+      <c r="CB2" s="43"/>
       <c r="CC2" s="5"/>
-      <c r="CD2" s="32">
+      <c r="CD2" s="43">
         <v>19</v>
       </c>
-      <c r="CE2" s="32"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
+      <c r="CE2" s="43"/>
+      <c r="CF2" s="43"/>
+      <c r="CG2" s="43"/>
       <c r="CH2" s="5"/>
-      <c r="CI2" s="32">
+      <c r="CI2" s="43">
         <v>20</v>
       </c>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="32"/>
-      <c r="CL2" s="32"/>
+      <c r="CJ2" s="43"/>
+      <c r="CK2" s="43"/>
+      <c r="CL2" s="43"/>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -39503,7 +39458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -39775,7 +39730,7 @@
         <v>1.094869327545166</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -40047,7 +40002,7 @@
         <v>2.7316677570343</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -40319,7 +40274,7 @@
         <v>10.888576602935791</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -40591,7 +40546,7 @@
         <v>39.462318563461302</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -40863,7 +40818,7 @@
         <v>346.32952241897601</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -41135,7 +41090,7 @@
         <v>597.84813999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -41407,7 +41362,7 @@
         <v>2391.7636200000002</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -41679,7 +41634,7 @@
         <v>4253.0472900000004</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -41876,7 +41831,7 @@
         <v>1131.53315</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -42094,7 +42049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -42438,7 +42393,7 @@
         <v>3.9362289301701534E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>4</v>
       </c>
@@ -42782,7 +42737,7 @@
         <v>0.43642787653910142</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>5</v>
       </c>
@@ -43126,7 +43081,7 @@
         <v>1.0369711108031758</v>
       </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>6</v>
       </c>
@@ -43470,7 +43425,7 @@
         <v>1.5961825981421183</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>7</v>
       </c>
@@ -43814,7 +43769,7 @@
         <v>2.5394895140073448</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>8</v>
       </c>
@@ -44158,7 +44113,7 @@
         <v>2.7765908824239056</v>
       </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>9</v>
       </c>
@@ -44502,7 +44457,7 @@
         <v>3.3787182557501612</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>10</v>
       </c>
@@ -44846,7 +44801,7 @@
         <v>3.628700211698709</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>11</v>
       </c>
@@ -45095,7 +45050,7 @@
         <v>3.0536672818004105</v>
       </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -45259,7 +45214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -45531,7 +45486,7 @@
         <v>0.98376334661000608</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -45803,7 +45758,7 @@
         <v>0.98175975533812299</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -46075,7 +46030,7 @@
         <v>0.99196056061343929</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -46347,7 +46302,7 @@
         <v>0.99650141473175413</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>7</v>
       </c>
@@ -46619,7 +46574,7 @@
         <v>0.99937749334646298</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>8</v>
       </c>
@@ -46891,7 +46846,7 @@
         <v>0.9994356717364854</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>9</v>
       </c>
@@ -47163,7 +47118,7 @@
         <v>0.99977526353604884</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>10</v>
       </c>
@@ -47435,7 +47390,7 @@
         <v>0.99985429336965326</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>11</v>
       </c>
@@ -47637,6 +47592,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="CI2:CL2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AK2:AN2"/>
@@ -47649,12 +47610,6 @@
     <mergeCell ref="BT2:BW2"/>
     <mergeCell ref="BY2:CB2"/>
     <mergeCell ref="CD2:CG2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -47669,59 +47624,59 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="32">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B1" s="43">
         <v>3</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="32">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="G1" s="43">
         <v>4</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="L1" s="32">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="L1" s="43">
         <v>5</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="Q1" s="32">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="Q1" s="43">
         <v>6</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="V1" s="32">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="V1" s="43">
         <v>7</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="AA1" s="32">
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="AA1" s="43">
         <v>8</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AF1" s="32">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AF1" s="43">
         <v>9</v>
       </c>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AK1" s="32">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AK1" s="43">
         <v>10</v>
       </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -47819,7 +47774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -47945,7 +47900,7 @@
         <v>2.0858648445698873</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -48067,7 +48022,7 @@
         <v>-0.29288138421506066</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -48189,7 +48144,7 @@
         <v>0.67731489186086258</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>6</v>
       </c>
@@ -48311,7 +48266,7 @@
         <v>1.4450479814309563</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -48433,7 +48388,7 @@
         <v>0.88890645482155717</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -48555,7 +48510,7 @@
         <v>1.153589887255857</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>9</v>
       </c>
@@ -48677,7 +48632,7 @@
         <v>1.0965374022620413</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -48799,7 +48754,7 @@
         <v>1.3776884587231557</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -48921,7 +48876,7 @@
         <v>2.1319164420655672</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>12</v>
       </c>
@@ -49043,7 +48998,7 @@
         <v>2.490925176691845</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>13</v>
       </c>
@@ -49165,7 +49120,7 @@
         <v>2.1978077885739853</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>14</v>
       </c>
@@ -49287,7 +49242,7 @@
         <v>2.4903829107696236</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>15</v>
       </c>
@@ -49409,7 +49364,7 @@
         <v>2.70227734307247</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>16</v>
       </c>
@@ -49531,7 +49486,7 @@
         <v>2.8155531442472803</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>17</v>
       </c>
@@ -49653,7 +49608,7 @@
         <v>3.2946463218205611</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>18</v>
       </c>
@@ -49775,7 +49730,7 @@
         <v>3.6779729388232281</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>19</v>
       </c>
@@ -49897,7 +49852,7 @@
         <v>3.3793685756325931</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>20</v>
       </c>
@@ -50043,20 +49998,20 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" customWidth="1"/>
-    <col min="4" max="4" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" customWidth="1"/>
+    <col min="2" max="2" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.703125" customWidth="1"/>
+    <col min="4" max="4" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>20</v>
       </c>
@@ -50067,7 +50022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -50075,7 +50030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -50091,29 +50046,29 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B5" s="14"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="36" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="47"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
@@ -50154,7 +50109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -50199,7 +50154,7 @@
         <v>0.12846708579881652</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -50244,7 +50199,7 @@
         <v>0.1813309016502824</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -50289,7 +50244,7 @@
         <v>0.13746753605569989</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -50334,7 +50289,7 @@
         <v>0.15450790876218881</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -50379,7 +50334,7 @@
         <v>0.1482162189380398</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -50424,7 +50379,7 @@
         <v>0.14571795645445429</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -50469,7 +50424,7 @@
         <v>0.12041156010688323</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -50514,25 +50469,25 @@
         <v>0.16127989270360579</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B16" s="14"/>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="36" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36" t="s">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="47"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
@@ -50564,7 +50519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="18">
         <v>3</v>
       </c>
@@ -50598,7 +50553,7 @@
         <v>0.11353550295857985</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="11">
         <v>4</v>
       </c>
@@ -50632,7 +50587,7 @@
         <v>9.5502869089453241E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="11">
         <v>5</v>
       </c>
@@ -50666,7 +50621,7 @@
         <v>0.11604133281759407</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="11">
         <v>6</v>
       </c>
@@ -50700,7 +50655,7 @@
         <v>0.14103816427604407</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="11">
         <v>7</v>
       </c>
@@ -50734,7 +50689,7 @@
         <v>0.12452478662604796</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="11">
         <v>8</v>
       </c>
@@ -50768,7 +50723,7 @@
         <v>7.6647557497834404E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="11">
         <v>9</v>
       </c>
@@ -50802,7 +50757,7 @@
         <v>0.13185746913672383</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="14">
         <v>10</v>
       </c>
@@ -50855,19 +50810,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED377EA-57F5-474A-9A67-7BB98695809A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="8.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.7890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.76171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -50875,7 +50830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -50885,17 +50840,17 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>3</v>
       </c>
@@ -50905,21 +50860,21 @@
       <c r="C3">
         <v>9.4719999999999999E-2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4</v>
       </c>
@@ -50929,23 +50884,23 @@
       <c r="C4">
         <v>0.13868</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="34">
         <v>1845.6</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="35">
         <v>1681.9</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="40">
         <v>1E-8</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="41">
         <v>8.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5</v>
       </c>
@@ -50955,23 +50910,23 @@
       <c r="C5">
         <v>0.19717000000000001</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="36">
         <v>3703.2</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="37">
         <v>3438</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="38">
         <v>1E-10</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="39">
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>6</v>
       </c>
@@ -50981,23 +50936,23 @@
       <c r="C6">
         <v>0.25907000000000002</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="34">
         <v>5964</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="35">
         <v>5746.8</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="40">
         <v>1E-10</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="41">
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51007,23 +50962,23 @@
       <c r="C7">
         <v>0.35476999999999997</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="36">
         <v>9670.2000000000007</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="37">
         <v>8919.6</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="38">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="39">
         <v>7.7600000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51033,23 +50988,23 @@
       <c r="C8">
         <v>0.47206999999999999</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="34">
         <v>13118.8</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="35">
         <v>12045.9</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="40">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="41">
         <v>8.1799999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51059,23 +51014,23 @@
       <c r="C9" s="9">
         <v>0.59230000000000005</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="36">
         <v>17096.8</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="37">
         <v>16140.9</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="38">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="39">
         <v>5.5899999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>10</v>
       </c>
@@ -51085,36 +51040,36 @@
       <c r="C10" s="9">
         <v>0.72819999999999996</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="34">
         <v>22290</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="35">
         <v>21035.4</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="40">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="41">
         <v>5.6300000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E11" s="41" t="s">
+    <row r="11" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="36">
         <v>27839.200000000001</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="37">
         <v>25752.2</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="38">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="39">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
